--- a/Lists/block.xlsx
+++ b/Lists/block.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>lists</t>
   </si>
@@ -33,6 +33,24 @@
   </si>
   <si>
     <t>Lists/voicing.xlsx</t>
+  </si>
+  <si>
+    <t>listsProd</t>
+  </si>
+  <si>
+    <t>listsFC</t>
+  </si>
+  <si>
+    <t>Lists/voicingProd.xlsx</t>
+  </si>
+  <si>
+    <t>Lists/voicingFC.xlsx</t>
+  </si>
+  <si>
+    <t>Lists/devoicingProd.xlsx</t>
+  </si>
+  <si>
+    <t>Lists/devoicingFC.xlsx</t>
   </si>
 </sst>
 </file>
@@ -350,27 +368,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
